--- a/Datasets/GDP/Correlation - Emissions vs GDP.xlsx
+++ b/Datasets/GDP/Correlation - Emissions vs GDP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CS661-Project\Datasets\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ila\Desktop\Sem 8\CS661\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9CDA1B-C75F-4EA5-9848-855EF7910299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6FC1F-326E-44B2-9D77-8614AFF827B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation-Country" sheetId="1" r:id="rId1"/>
@@ -1065,12 +1065,12 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>12.148</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>4.9550000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>176.345</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>192.864</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>6.4080000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>392.279</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>61.488</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>38.063000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>37.795999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>102.10299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>58.801000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>89.605000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>8.4320000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>21.494</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>19.736000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>7.4669999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>483.47699999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>46.146999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>5.9619999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>19.954999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>9.5730000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>547.94399999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>84.378</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>11396.777</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>99.718000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7.8890000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>216</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>11.734</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>17.526</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>20.920999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>7.0289999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>97.968999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>29.059000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>23.638000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>41.613</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>258.952</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>7.7140000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>10.311999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>19.073</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>36.162999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>297.53399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>5.7060000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>11.093</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>665.60500000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>20.806999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>59.662999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>216</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>19.193000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>213</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>216</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>30.568999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>44.353999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>2829.6439999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>728.88300000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>690.63499999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>179.08099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>38.783999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>56.118000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>338.09699999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>6.4880000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1053.798</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>22.913</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>271.178</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>24.852</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>109.19</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>23.193000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>6.5910000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>23.905000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>3.1349999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>62.960999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>212</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>12.667</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>7.524</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>213</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>211</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>291.07100000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>7.0389999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>213</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>4.5339999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>511.97199999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>5.4219999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>37.893999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>68.412000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>8.0030000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>213</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>34.921999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>125.358</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>32.212000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>3.0579999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>128.75899999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>50.872</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>7.5880000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>40.808</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>211</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>71.986000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>200.2</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>215</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>3.4969999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>214</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>9.0180000000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>60.920999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>150.39599999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>212</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>323.11700000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>212</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>41.604999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>101.34</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>73.521000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>212</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1652.1769999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>216</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>213</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>662.54899999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>43.506999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>211</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>53.252000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>212</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>34.152000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>212</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>12.715</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>213</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>404.05399999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>213</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>600.99900000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>245.614</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>17.327000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>212</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>38.051000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>27.635000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>211</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>277.90100000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>10.016999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -22387,7 +22387,7 @@
         <v>270.74599999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>213</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>34.332000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>213</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>35.576999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>435.685</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>70.957999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>6.0220000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>212</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>141.25299999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>243.89500000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>212</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>318.654</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>212</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>5057.3040000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>7.8929999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>211</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>120.61</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>76.891999999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>211</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>343.60700000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>211</v>
       </c>
@@ -24502,7 +24502,7 @@
         <v>37149.785000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>211</v>
       </c>
@@ -24646,7 +24646,7 @@
         <v>11.356</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>8.9220000000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>213</v>
       </c>
@@ -24947,9 +24947,9 @@
       <selection activeCell="C167" sqref="C167:V167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>12.148</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>4.9550000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -25503,7 +25503,7 @@
         <v>176.345</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -25777,7 +25777,7 @@
         <v>192.864</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>6.4080000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>392.279</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>61.488</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>38.063000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -26462,7 +26462,7 @@
         <v>37.795999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>102.10299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>1.2330000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>58.801000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>89.605000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -27147,7 +27147,7 @@
         <v>8.4320000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -27284,7 +27284,7 @@
         <v>21.494</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -27421,7 +27421,7 @@
         <v>19.736000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -27558,7 +27558,7 @@
         <v>7.4669999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>483.47699999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>46.146999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -27969,7 +27969,7 @@
         <v>5.9619999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -28106,7 +28106,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>19.954999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>9.5730000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>547.94399999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -28654,7 +28654,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -29065,7 +29065,7 @@
         <v>84.378</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -29202,7 +29202,7 @@
         <v>11396.777</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>99.718000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v>7.4320000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>7.8890000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>11.734</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -30024,7 +30024,7 @@
         <v>17.526</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -30161,7 +30161,7 @@
         <v>20.920999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>7.0289999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>97.968999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -30709,7 +30709,7 @@
         <v>29.059000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -30983,7 +30983,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -31120,7 +31120,7 @@
         <v>23.638000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>41.613</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>258.952</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>7.7140000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -31805,7 +31805,7 @@
         <v>10.311999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -31942,7 +31942,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -32079,7 +32079,7 @@
         <v>19.073</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -32216,7 +32216,7 @@
         <v>36.162999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -32353,7 +32353,7 @@
         <v>297.53399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -32490,7 +32490,7 @@
         <v>5.7060000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -32627,7 +32627,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>11.093</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>665.60500000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>20.806999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>59.662999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>19.193000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -33449,7 +33449,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -33586,7 +33586,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -33723,7 +33723,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -33997,7 +33997,7 @@
         <v>30.568999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -34134,7 +34134,7 @@
         <v>44.353999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -34271,7 +34271,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -34408,7 +34408,7 @@
         <v>2829.6439999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -34545,7 +34545,7 @@
         <v>728.88300000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -34682,7 +34682,7 @@
         <v>690.63499999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>179.08099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -34956,7 +34956,7 @@
         <v>38.783999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -35093,7 +35093,7 @@
         <v>56.118000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -35230,7 +35230,7 @@
         <v>338.09699999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -35367,7 +35367,7 @@
         <v>6.4880000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>1053.798</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -35641,7 +35641,7 @@
         <v>22.913</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>271.178</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -35915,7 +35915,7 @@
         <v>24.852</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>109.19</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -36189,7 +36189,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -36326,7 +36326,7 @@
         <v>23.193000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -36463,7 +36463,7 @@
         <v>6.5910000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -36600,7 +36600,7 @@
         <v>23.905000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -36737,7 +36737,7 @@
         <v>3.1349999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -36874,7 +36874,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -37011,7 +37011,7 @@
         <v>62.960999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -37148,7 +37148,7 @@
         <v>12.667</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -37285,7 +37285,7 @@
         <v>7.524</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -37422,7 +37422,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -37696,7 +37696,7 @@
         <v>291.07100000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>7.0389999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -37970,7 +37970,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -38107,7 +38107,7 @@
         <v>4.5339999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -38244,7 +38244,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -38381,7 +38381,7 @@
         <v>511.97199999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -38518,7 +38518,7 @@
         <v>5.4219999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -38655,7 +38655,7 @@
         <v>37.893999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -38792,7 +38792,7 @@
         <v>2.2919999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -38929,7 +38929,7 @@
         <v>68.412000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -39066,7 +39066,7 @@
         <v>8.0030000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -39203,7 +39203,7 @@
         <v>34.921999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -39340,7 +39340,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -39477,7 +39477,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -39614,7 +39614,7 @@
         <v>125.358</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -39751,7 +39751,7 @@
         <v>32.212000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -40025,7 +40025,7 @@
         <v>3.0579999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -40162,7 +40162,7 @@
         <v>128.75899999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -40299,7 +40299,7 @@
         <v>50.872</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -40436,7 +40436,7 @@
         <v>7.5880000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -40573,7 +40573,7 @@
         <v>40.808</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -40710,7 +40710,7 @@
         <v>71.986000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -40847,7 +40847,7 @@
         <v>200.2</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -40984,7 +40984,7 @@
         <v>3.4969999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -41121,7 +41121,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -41258,7 +41258,7 @@
         <v>9.0180000000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>60.920999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -41532,7 +41532,7 @@
         <v>150.39599999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -41669,7 +41669,7 @@
         <v>323.11700000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -41806,7 +41806,7 @@
         <v>41.604999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>101.34</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -42080,7 +42080,7 @@
         <v>73.521000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -42217,7 +42217,7 @@
         <v>1652.1769999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -42354,7 +42354,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -42491,7 +42491,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -42628,7 +42628,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -42765,7 +42765,7 @@
         <v>662.54899999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -42902,7 +42902,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -43039,7 +43039,7 @@
         <v>43.506999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -43176,7 +43176,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -43313,7 +43313,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -43450,7 +43450,7 @@
         <v>53.252000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>175</v>
       </c>
@@ -43587,7 +43587,7 @@
         <v>34.152000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -43724,7 +43724,7 @@
         <v>12.715</v>
       </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -43861,7 +43861,7 @@
         <v>404.05399999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -43998,7 +43998,7 @@
         <v>600.99900000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -44135,7 +44135,7 @@
         <v>245.614</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -44272,7 +44272,7 @@
         <v>17.327000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -44409,7 +44409,7 @@
         <v>38.051000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -44546,7 +44546,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>183</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>27.635000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -44820,7 +44820,7 @@
         <v>277.90100000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>185</v>
       </c>
@@ -44957,7 +44957,7 @@
         <v>10.016999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>186</v>
       </c>
@@ -45094,7 +45094,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -45231,7 +45231,7 @@
         <v>270.74599999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>188</v>
       </c>
@@ -45368,7 +45368,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>189</v>
       </c>
@@ -45505,7 +45505,7 @@
         <v>34.332000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>190</v>
       </c>
@@ -45642,7 +45642,7 @@
         <v>35.576999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -45779,7 +45779,7 @@
         <v>435.685</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>192</v>
       </c>
@@ -45916,7 +45916,7 @@
         <v>70.957999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>193</v>
       </c>
@@ -46053,7 +46053,7 @@
         <v>6.0220000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>194</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>141.25299999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>195</v>
       </c>
@@ -46327,7 +46327,7 @@
         <v>243.89500000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>196</v>
       </c>
@@ -46464,7 +46464,7 @@
         <v>318.654</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>197</v>
       </c>
@@ -46601,7 +46601,7 @@
         <v>5057.3040000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -46738,7 +46738,7 @@
         <v>7.8929999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -46875,7 +46875,7 @@
         <v>120.61</v>
       </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -47012,7 +47012,7 @@
         <v>76.891999999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>201</v>
       </c>
@@ -47149,7 +47149,7 @@
         <v>343.60700000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>203</v>
       </c>
@@ -47286,7 +47286,7 @@
         <v>11.356</v>
       </c>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>204</v>
       </c>
@@ -47423,7 +47423,7 @@
         <v>8.9220000000000006</v>
       </c>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>205</v>
       </c>
@@ -47560,7 +47560,7 @@
         <v>8.8559999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>206</v>
       </c>
@@ -47658,9 +47658,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
@@ -47668,7 +47668,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -47676,7 +47676,7 @@
         <v>0.96723744480052021</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2000</v>
@@ -47685,7 +47685,7 @@
         <v>0.97014837554079858</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>2001</v>
@@ -47694,7 +47694,7 @@
         <v>0.97090749900045281</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -47703,7 +47703,7 @@
         <v>0.97013028107429589</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -47712,7 +47712,7 @@
         <v>0.96146247165449683</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -47721,7 +47721,7 @@
         <v>0.95963046053558332</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -47730,7 +47730,7 @@
         <v>0.95366803756995333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -47739,7 +47739,7 @@
         <v>0.94780061630211376</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -47748,7 +47748,7 @@
         <v>0.94804806507958583</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -47757,7 +47757,7 @@
         <v>0.93863194895747903</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -47766,7 +47766,7 @@
         <v>0.93516997669419755</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -47775,7 +47775,7 @@
         <v>0.93845995793691617</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -47784,7 +47784,7 @@
         <v>0.9278215467127009</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -47793,7 +47793,7 @@
         <v>0.92669073844912442</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -47802,7 +47802,7 @@
         <v>0.93467539560333601</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -47811,7 +47811,7 @@
         <v>0.94084093808385028</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -47820,7 +47820,7 @@
         <v>0.9403783485999726</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -47829,7 +47829,7 @@
         <v>0.94294046626337713</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -47838,7 +47838,7 @@
         <v>0.93721980222569934</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -47856,13 +47856,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA5A97C-1324-4F71-9FF6-82C911A44573}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
@@ -47873,7 +47873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -47884,7 +47884,7 @@
         <v>0.95142376058861478</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -47895,7 +47895,7 @@
         <v>0.85667397738435191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -47906,7 +47906,7 @@
         <v>0.96501861599357364</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -47917,7 +47917,7 @@
         <v>0.91067660688730834</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -47928,7 +47928,7 @@
         <v>0.9627155424051338</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>0.9292810509252819</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -47950,7 +47950,7 @@
         <v>0.88668114044418089</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -47961,7 +47961,7 @@
         <v>-0.30868789710144101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -47972,7 +47972,7 @@
         <v>0.51287985296086613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -47983,7 +47983,7 @@
         <v>0.94280352957591118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -47994,7 +47994,7 @@
         <v>0.99677270213034364</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -48005,7 +48005,7 @@
         <v>0.36205419783274517</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -48016,7 +48016,7 @@
         <v>0.80638905069978351</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -48027,7 +48027,7 @@
         <v>-0.88875242362894513</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -48038,7 +48038,7 @@
         <v>0.96508225690201443</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -48049,7 +48049,7 @@
         <v>0.9881711991700195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -48060,7 +48060,7 @@
         <v>0.89566794066603517</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -48071,7 +48071,7 @@
         <v>0.89565457867962839</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -48082,7 +48082,7 @@
         <v>0.95487577724149719</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -48093,7 +48093,7 @@
         <v>-9.294295885037808E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -48104,7 +48104,7 @@
         <v>0.98614975993990794</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -48115,7 +48115,7 @@
         <v>0.74497896874206737</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>211</v>
       </c>
@@ -48126,7 +48126,7 @@
         <v>0.95961956923964709</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -48137,7 +48137,7 @@
         <v>0.93361509712923763</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>216</v>
       </c>
@@ -48148,7 +48148,7 @@
         <v>0.16850144029812408</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -48159,7 +48159,7 @@
         <v>0.84458260843681376</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -48170,7 +48170,7 @@
         <v>0.22987170801159379</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -48181,7 +48181,7 @@
         <v>0.9803527243156106</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -48192,7 +48192,7 @@
         <v>0.96435501030641979</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -48203,7 +48203,7 @@
         <v>0.97401509396805841</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -48214,7 +48214,7 @@
         <v>0.95575861574128873</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -48225,7 +48225,7 @@
         <v>0.83331215158593186</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -48236,7 +48236,7 @@
         <v>0.8721736503660803</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -48247,9 +48247,9 @@
         <v>0.83421436969397189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -48258,7 +48258,7 @@
         <v>0.85982675923325469</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -48269,7 +48269,7 @@
         <v>-0.13116857372778798</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -48280,7 +48280,7 @@
         <v>0.36122871215300406</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -48291,7 +48291,7 @@
         <v>0.41797964166959262</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -48302,9 +48302,9 @@
         <v>-0.74529563821583322</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -48313,7 +48313,7 @@
         <v>0.74492162550891472</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -48324,7 +48324,7 @@
         <v>-0.83484621728054476</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -48335,7 +48335,7 @@
         <v>0.20293735418810993</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -48346,7 +48346,7 @@
         <v>0.865744923454283</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -48357,7 +48357,7 @@
         <v>0.87610274772287799</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -48368,7 +48368,7 @@
         <v>0.96300926672263132</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -48379,7 +48379,7 @@
         <v>0.97632619578389268</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -48390,7 +48390,7 @@
         <v>0.44142437575079319</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -48401,7 +48401,7 @@
         <v>0.83810883242081569</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -48412,7 +48412,7 @@
         <v>0.56485661247713403</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -48423,7 +48423,7 @@
         <v>-0.28148496193274586</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -48434,7 +48434,7 @@
         <v>0.98720616879216294</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -48445,7 +48445,7 @@
         <v>-0.42060052399589942</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -48456,7 +48456,7 @@
         <v>-0.8576548834786325</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -48467,7 +48467,7 @@
         <v>-6.4589902522988948E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -48478,7 +48478,7 @@
         <v>0.96094742693180701</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>212</v>
       </c>
@@ -48489,7 +48489,7 @@
         <v>0.96309960323005039</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -48500,7 +48500,7 @@
         <v>-0.91440012098490731</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -48511,7 +48511,7 @@
         <v>0.95964226139547437</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -48522,7 +48522,7 @@
         <v>0.57735145745459171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>216</v>
       </c>
@@ -48533,7 +48533,7 @@
         <v>0.89248905667106682</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -48544,7 +48544,7 @@
         <v>0.94291929820159248</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>213</v>
       </c>
@@ -48555,7 +48555,7 @@
         <v>0.93999161827916089</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>216</v>
       </c>
@@ -48566,7 +48566,7 @@
         <v>0.95457183059735651</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>216</v>
       </c>
@@ -48577,7 +48577,7 @@
         <v>0.97249866945185837</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>216</v>
       </c>
@@ -48588,7 +48588,7 @@
         <v>0.51021407128225038</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -48599,7 +48599,7 @@
         <v>-0.75752567904521184</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -48610,7 +48610,7 @@
         <v>0.8193969889481848</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -48621,7 +48621,7 @@
         <v>0.99744028151224096</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -48632,7 +48632,7 @@
         <v>0.97991096790707277</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -48643,7 +48643,7 @@
         <v>0.95350409903528266</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>0.86320655157650672</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -48665,7 +48665,7 @@
         <v>-0.54441526595107137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -48676,7 +48676,7 @@
         <v>0.23689119239115877</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -48687,7 +48687,7 @@
         <v>-0.2041358918706811</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -48698,7 +48698,7 @@
         <v>-5.1534037678895847E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -48709,7 +48709,7 @@
         <v>-0.3333928407196034</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -48720,7 +48720,7 @@
         <v>0.95968140392853685</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -48731,7 +48731,7 @@
         <v>0.98383535086604468</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -48742,7 +48742,7 @@
         <v>0.94193761031967949</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -48753,7 +48753,7 @@
         <v>0.90908995827942241</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -48764,7 +48764,7 @@
         <v>0.93430575776170954</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -48775,7 +48775,7 @@
         <v>0.86339082061203021</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -48786,7 +48786,7 @@
         <v>0.22331435913298919</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -48797,7 +48797,7 @@
         <v>0.83530206562529052</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -48808,7 +48808,7 @@
         <v>0.59797531736030429</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>213</v>
       </c>
@@ -48819,7 +48819,7 @@
         <v>0.26922986598096338</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -48830,7 +48830,7 @@
         <v>0.25521285445764513</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>212</v>
       </c>
@@ -48841,7 +48841,7 @@
         <v>0.41643665142792535</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -48852,7 +48852,7 @@
         <v>-5.5332580745755415E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -48863,7 +48863,7 @@
         <v>0.85499887425054089</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>213</v>
       </c>
@@ -48874,7 +48874,7 @@
         <v>0.82837368662585176</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>211</v>
       </c>
@@ -48885,7 +48885,7 @@
         <v>0.97022639731931049</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -48896,7 +48896,7 @@
         <v>0.96617061788062253</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -48907,7 +48907,7 @@
         <v>-0.89904164473202353</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>213</v>
       </c>
@@ -48918,7 +48918,7 @@
         <v>0.94897252894183393</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -48929,7 +48929,7 @@
         <v>0.94911413997431759</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>0.82543537800261246</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>212</v>
       </c>
@@ -48951,7 +48951,7 @@
         <v>0.75010896701000229</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>211</v>
       </c>
@@ -48962,7 +48962,7 @@
         <v>0.90037219948678138</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -48973,7 +48973,7 @@
         <v>0.72925750365671371</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -48984,7 +48984,7 @@
         <v>0.97391229757656161</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -48995,9 +48995,9 @@
         <v>0.89715712885479681</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
         <v>143</v>
@@ -49006,7 +49006,7 @@
         <v>0.84434479026986664</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -49017,7 +49017,7 @@
         <v>0.95768290424185631</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -49028,7 +49028,7 @@
         <v>0.90386607728889456</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -49039,7 +49039,7 @@
         <v>-0.65552419674995632</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -49050,7 +49050,7 @@
         <v>0.36395491222277965</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -49061,7 +49061,7 @@
         <v>0.93419999857793556</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -49072,7 +49072,7 @@
         <v>0.92004343881247985</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -49083,9 +49083,9 @@
         <v>0.66684106597623394</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>151</v>
@@ -49094,9 +49094,9 @@
         <v>-0.64232893664696689</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
         <v>152</v>
@@ -49105,7 +49105,7 @@
         <v>-0.66902849261462161</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -49116,7 +49116,7 @@
         <v>0.70897721464958663</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>211</v>
       </c>
@@ -49127,7 +49127,7 @@
         <v>0.98058307393431809</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -49138,7 +49138,7 @@
         <v>0.9533565506690006</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>215</v>
       </c>
@@ -49149,7 +49149,7 @@
         <v>0.77976008924044637</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -49160,7 +49160,7 @@
         <v>0.95948964316232643</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>214</v>
       </c>
@@ -49171,7 +49171,7 @@
         <v>0.91319273051754624</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -49182,7 +49182,7 @@
         <v>0.97599674143971582</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -49193,7 +49193,7 @@
         <v>0.94699111084308141</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>212</v>
       </c>
@@ -49204,7 +49204,7 @@
         <v>0.29666990671610649</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>212</v>
       </c>
@@ -49215,7 +49215,7 @@
         <v>-0.46166120145932776</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -49226,7 +49226,7 @@
         <v>0.98185561705036761</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v>-0.56384950009856383</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>212</v>
       </c>
@@ -49248,7 +49248,7 @@
         <v>0.92098553437665109</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -49259,7 +49259,7 @@
         <v>0.94405715095278619</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>216</v>
       </c>
@@ -49270,7 +49270,7 @@
         <v>0.95427213435883051</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>213</v>
       </c>
@@ -49281,7 +49281,7 @@
         <v>0.98385138901069036</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -49292,7 +49292,7 @@
         <v>0.97362465484435723</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -49303,7 +49303,7 @@
         <v>0.96332398170315692</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -49314,7 +49314,7 @@
         <v>-0.18610248884483793</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -49325,7 +49325,7 @@
         <v>0.94219908226604621</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -49336,7 +49336,7 @@
         <v>0.94170526283312772</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>211</v>
       </c>
@@ -49347,7 +49347,7 @@
         <v>7.0272899623344251E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>212</v>
       </c>
@@ -49358,7 +49358,7 @@
         <v>-0.85536788956939103</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>212</v>
       </c>
@@ -49369,7 +49369,7 @@
         <v>-0.10436285297348075</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>213</v>
       </c>
@@ -49380,9 +49380,9 @@
         <v>0.75024347101574151</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B139" t="s">
         <v>178</v>
@@ -49391,7 +49391,7 @@
         <v>0.97835473512747628</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -49402,7 +49402,7 @@
         <v>-0.23111548666585255</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -49413,7 +49413,7 @@
         <v>0.94520310967002585</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>212</v>
       </c>
@@ -49424,7 +49424,7 @@
         <v>-0.88949903113660489</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -49435,7 +49435,7 @@
         <v>-0.76846268447179689</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -49446,7 +49446,7 @@
         <v>0.92150991857940068</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>211</v>
       </c>
@@ -49457,7 +49457,7 @@
         <v>0.86640090609580156</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -49468,7 +49468,7 @@
         <v>0.86774063669298462</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -49479,7 +49479,7 @@
         <v>0.98818622017850755</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -49490,7 +49490,7 @@
         <v>0.99226584048812494</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>213</v>
       </c>
@@ -49501,7 +49501,7 @@
         <v>0.44300415266504267</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -49512,7 +49512,7 @@
         <v>0.9795678415978929</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>213</v>
       </c>
@@ -49523,7 +49523,7 @@
         <v>0.98601672411158459</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -49534,7 +49534,7 @@
         <v>0.97290251915610249</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -49545,7 +49545,7 @@
         <v>0.87866619248929456</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -49556,7 +49556,7 @@
         <v>0.99383843010719464</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>212</v>
       </c>
@@ -49567,7 +49567,7 @@
         <v>4.5875802706425127E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -49578,7 +49578,7 @@
         <v>0.97789834238638484</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>212</v>
       </c>
@@ -49589,9 +49589,9 @@
         <v>-0.8467274916751687</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
         <v>197</v>
@@ -49600,7 +49600,7 @@
         <v>-0.73276457667909212</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>214</v>
       </c>
@@ -49611,7 +49611,7 @@
         <v>0.55009905987429875</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>211</v>
       </c>
@@ -49622,7 +49622,7 @@
         <v>-0.85277300727080574</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -49633,7 +49633,7 @@
         <v>0.7342824836977665</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>211</v>
       </c>
@@ -49644,7 +49644,7 @@
         <v>0.99177257695439613</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>211</v>
       </c>
@@ -49655,7 +49655,7 @@
         <v>0.98908871096147333</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>211</v>
       </c>
@@ -49666,7 +49666,7 @@
         <v>0.95688261599531554</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>213</v>
       </c>
@@ -49677,7 +49677,7 @@
         <v>0.9305824328697605</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>213</v>
       </c>
